--- a/data/trans_orig/P14B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9C546F-57A3-4A14-BF53-1E8C8523D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2167E53-55CC-4AF2-9D7F-EB52B276AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64DE6EF9-9999-4403-9D94-F1B255D06260}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42E0D4FA-3230-4F5C-B7C2-D976B4FF0AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="317">
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2012 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -91,205 +91,205 @@
     <t>28,84%</t>
   </si>
   <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -298,109 +298,109 @@
     <t>70,97%</t>
   </si>
   <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -442,19 +442,19 @@
     <t>60,96%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>59,07%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>47,84%</t>
@@ -463,526 +463,532 @@
     <t>39,04%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>40,93%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>84,33%</t>
   </si>
   <si>
-    <t>59,24%</t>
+    <t>59,32%</t>
   </si>
   <si>
     <t>79,86%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>81,84%</t>
   </si>
   <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>40,76%</t>
+    <t>40,68%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>71,55%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>66,18%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>30,43%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>68,43%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
+    <t>61,03%</t>
   </si>
   <si>
     <t>38,18%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>61,91%</t>
   </si>
   <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
   </si>
   <si>
     <t>38,09%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>38,79%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>37,06%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0A3FC9-E1E4-4472-A49F-683073F7DA18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43597FC6-C1AE-4B08-9C16-909A84B71473}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1849,7 +1855,7 @@
         <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1858,13 +1864,13 @@
         <v>10751</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1885,13 @@
         <v>3024</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1894,13 +1900,13 @@
         <v>2889</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -1909,13 +1915,13 @@
         <v>5913</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,7 +1977,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1983,10 +1989,10 @@
         <v>11301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -1998,13 +2004,13 @@
         <v>2195</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2013,13 +2019,13 @@
         <v>13496</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2040,13 @@
         <v>1408</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2049,10 +2055,10 @@
         <v>3212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2064,13 +2070,13 @@
         <v>4621</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,7 +2132,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2138,13 +2144,13 @@
         <v>17279</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2153,13 +2159,13 @@
         <v>18664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2168,13 +2174,13 @@
         <v>35942</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2195,13 @@
         <v>4320</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2204,7 +2210,7 @@
         <v>7359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>79</v>
@@ -2526,7 +2532,7 @@
         <v>73</v>
       </c>
       <c r="N23" s="7">
-        <v>77290</v>
+        <v>77291</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>118</v>
@@ -2577,7 +2583,7 @@
         <v>257</v>
       </c>
       <c r="N24" s="7">
-        <v>274675</v>
+        <v>274676</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -2613,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8309F03-138B-48E6-AC0B-7BCC84E6AEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1625F1-E2D9-4911-98A0-3A7B3AD7A01F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3184,7 +3190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3339,7 +3345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3826,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5C7491-F3DC-4956-B0B8-8B5ED4F0A88F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7064674F-86A9-4627-9838-F480BCAC0F4E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4263,7 +4269,7 @@
         <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -4275,13 +4281,13 @@
         <v>2849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4290,13 +4296,13 @@
         <v>8120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4317,13 @@
         <v>785</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4326,13 +4332,13 @@
         <v>996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4341,13 +4347,13 @@
         <v>1780</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,7 +4409,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4415,13 +4421,13 @@
         <v>13276</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4430,13 +4436,13 @@
         <v>9601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -4445,13 +4451,13 @@
         <v>22877</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4472,13 @@
         <v>7866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -4481,13 +4487,13 @@
         <v>5929</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -4496,13 +4502,13 @@
         <v>13795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4564,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4570,13 +4576,13 @@
         <v>36105</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4585,13 +4591,13 @@
         <v>12990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4600,13 +4606,13 @@
         <v>49095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4627,13 @@
         <v>15192</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4636,13 +4642,13 @@
         <v>5954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -4651,13 +4657,13 @@
         <v>21146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4731,13 @@
         <v>61588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -4740,13 +4746,13 @@
         <v>73259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -4755,13 +4761,13 @@
         <v>134847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4782,13 @@
         <v>40394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -4791,13 +4797,13 @@
         <v>45070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>142</v>
@@ -4806,13 +4812,13 @@
         <v>85463</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4886,13 @@
         <v>117531</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>173</v>
@@ -4895,13 +4901,13 @@
         <v>102065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -4910,13 +4916,13 @@
         <v>219596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4937,13 @@
         <v>69210</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>109</v>
@@ -4946,13 +4952,13 @@
         <v>61216</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M23" s="7">
         <v>199</v>
@@ -4961,13 +4967,13 @@
         <v>130426</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B10-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2167E53-55CC-4AF2-9D7F-EB52B276AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4A9B93-CC77-419F-B186-D66920A97117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42E0D4FA-3230-4F5C-B7C2-D976B4FF0AD8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A823448D-CF31-441D-A75E-AC810834C12A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -91,7 +91,7 @@
     <t>28,84%</t>
   </si>
   <si>
-    <t>71,7%</t>
+    <t>71,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,7 +115,7 @@
     <t>71,16%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -145,547 +145,553 @@
     <t>56,43%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>33,84%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo trastorno cardíaco le limita en 2016 (Tasa respuesta: 4,05%)</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo trastorno cardíaco le limita en 2015 (Tasa respuesta: 4,05%)</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
     <t>30,43%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>25,64%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>Población cuyo trastorno cardíaco le limita en 2023 (Tasa respuesta: 6,02%)</t>
@@ -889,9 +895,6 @@
     <t>51,78%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
     <t>61,91%</t>
   </si>
   <si>
@@ -911,9 +914,6 @@
   </si>
   <si>
     <t>39,61%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
   </si>
   <si>
     <t>48,22%</t>
@@ -1400,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43597FC6-C1AE-4B08-9C16-909A84B71473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE5F18C-D711-4015-AFE7-3DEBC7D416A2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1855,7 +1855,7 @@
         <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1864,13 +1864,13 @@
         <v>10751</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,13 +1885,13 @@
         <v>3024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1900,13 +1900,13 @@
         <v>2889</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -1915,13 +1915,13 @@
         <v>5913</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,7 +1977,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1989,10 +1989,10 @@
         <v>11301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -2004,13 +2004,13 @@
         <v>2195</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2019,13 +2019,13 @@
         <v>13496</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2040,13 @@
         <v>1408</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2055,10 +2055,10 @@
         <v>3212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2070,13 +2070,13 @@
         <v>4621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,7 +2132,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2144,13 +2144,13 @@
         <v>17279</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2159,13 +2159,13 @@
         <v>18664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2174,13 +2174,13 @@
         <v>35942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2195,13 @@
         <v>4320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2210,13 +2210,13 @@
         <v>7359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2225,13 +2225,13 @@
         <v>11679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2299,13 +2299,13 @@
         <v>59500</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -2314,13 +2314,13 @@
         <v>73764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>124</v>
@@ -2329,13 +2329,13 @@
         <v>133264</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2350,13 @@
         <v>24337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2365,13 +2365,13 @@
         <v>23912</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -2380,13 +2380,13 @@
         <v>48249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2454,13 @@
         <v>93037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -2469,13 +2469,13 @@
         <v>104348</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>184</v>
@@ -2484,13 +2484,13 @@
         <v>197385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2505,13 @@
         <v>36034</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -2520,13 +2520,13 @@
         <v>41257</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -2535,13 +2535,13 @@
         <v>77291</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,7 +2597,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1625F1-E2D9-4911-98A0-3A7B3AD7A01F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2D9DEB-AFE1-42E4-BC70-52754A08C7EA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2636,7 +2636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2758,7 +2758,7 @@
         <v>2001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -2773,13 +2773,13 @@
         <v>2001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,7 +2809,7 @@
         <v>920</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -2824,10 +2824,10 @@
         <v>3072</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2896,13 +2896,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -2929,7 +2929,7 @@
         <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>21</v>
@@ -2945,13 +2945,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3047,7 +3047,7 @@
         <v>1019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -3062,13 +3062,13 @@
         <v>4354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3077,13 +3077,13 @@
         <v>5373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,7 +3098,7 @@
         <v>934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
@@ -3113,13 +3113,13 @@
         <v>2788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3128,13 +3128,13 @@
         <v>3723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3202,10 +3202,10 @@
         <v>10514</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -3217,13 +3217,13 @@
         <v>12574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3232,13 +3232,13 @@
         <v>23088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3253,13 @@
         <v>1954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3268,13 +3268,13 @@
         <v>3170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3283,13 +3283,13 @@
         <v>5124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,7 +3345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3357,13 +3357,13 @@
         <v>20501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3372,13 +3372,13 @@
         <v>11086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3387,13 +3387,13 @@
         <v>31587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3408,13 @@
         <v>8153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3423,13 +3423,13 @@
         <v>5666</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3438,13 +3438,13 @@
         <v>13819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,7 +3500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3512,13 +3512,13 @@
         <v>61220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -3527,13 +3527,13 @@
         <v>85729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -3542,13 +3542,13 @@
         <v>146949</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3563,13 @@
         <v>21110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -3578,13 +3578,13 @@
         <v>27352</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -3593,13 +3593,13 @@
         <v>48462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3667,13 @@
         <v>93253</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -3682,13 +3682,13 @@
         <v>119632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M22" s="7">
         <v>197</v>
@@ -3697,13 +3697,13 @@
         <v>212885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3718,13 @@
         <v>34304</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -3733,13 +3733,13 @@
         <v>39896</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M23" s="7">
         <v>69</v>
@@ -3748,13 +3748,13 @@
         <v>74200</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3810,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7064674F-86A9-4627-9838-F480BCAC0F4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229B4693-EA91-4BBC-8020-7EA73758C328}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3962,7 +3962,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3974,7 +3974,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>21</v>
@@ -3986,7 +3986,7 @@
         <v>3366</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -4010,7 +4010,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4028,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>3436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -4111,7 +4111,7 @@
         <v>1292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -4132,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4141,13 +4141,13 @@
         <v>1292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,7 +4162,7 @@
         <v>1536</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -4180,7 +4180,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4192,10 +4192,10 @@
         <v>4804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4266,10 +4266,10 @@
         <v>5270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -4281,13 +4281,13 @@
         <v>2849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4296,13 +4296,13 @@
         <v>8120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4317,13 @@
         <v>785</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4332,13 +4332,13 @@
         <v>996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4347,13 +4347,13 @@
         <v>1780</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4409,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4421,13 +4421,13 @@
         <v>13276</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4436,13 +4436,13 @@
         <v>9601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -4451,13 +4451,13 @@
         <v>22877</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4472,13 @@
         <v>7866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -4487,13 +4487,13 @@
         <v>5929</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -4502,13 +4502,13 @@
         <v>13795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4564,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4576,13 +4576,13 @@
         <v>36105</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4591,13 +4591,13 @@
         <v>12990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4606,13 +4606,13 @@
         <v>49095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4627,13 @@
         <v>15192</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4642,13 +4642,13 @@
         <v>5954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -4657,13 +4657,13 @@
         <v>21146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4719,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4731,13 +4731,13 @@
         <v>61588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -4746,13 +4746,13 @@
         <v>73259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -4761,13 +4761,13 @@
         <v>134847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,10 +4782,10 @@
         <v>40394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>292</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
